--- a/teraterm_PD3.xlsx
+++ b/teraterm_PD3.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RumiCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RumiCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB51A75D-B10F-41B6-8FC5-AC8BEEE52DAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1159F-1B81-4197-8085-2BF96DF288B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6705" yWindow="2745" windowWidth="22110" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teraterm_PD3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="163">
   <si>
     <t>[2020-06-30</t>
   </si>
@@ -516,13 +524,17 @@
   </si>
   <si>
     <t>angle</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p+d</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -1541,253 +1553,6 @@
           <c:val>
             <c:numRef>
               <c:f>teraterm_PD3!$D$2:$D$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>1501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1435</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1487</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1475</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1479</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1369</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1422</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1467</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1244</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>754</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>765</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>764</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>742</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>721</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>674</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>774</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>917</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>897</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>876</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>824</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>778</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>731</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>104</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2277,7 +2042,3991 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$C$2:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06BD-48C9-B372-3D1903375DFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$D$2:$D$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06BD-48C9-B372-3D1903375DFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$E$2:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06BD-48C9-B372-3D1903375DFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$H$2:$H$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06BD-48C9-B372-3D1903375DFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$I$2:$I$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06BD-48C9-B372-3D1903375DFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522791776"/>
+        <c:axId val="522793744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522791776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522793744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522793744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522791776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$C$2:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$D$2:$D$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$E$2:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$F$2:$F$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$G$2:$G$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$H$2:$H$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$I$2:$I$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$J$2:$J$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$K$2:$K$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p+d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$L$2:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>100.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-27.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-29.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-40.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.83</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-20.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-32.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-27.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-19.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-11.17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4.33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49.33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1001.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-56.17</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-138.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BCA3-4E0B-BB30-8B93FF0F19DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522781608"/>
+        <c:axId val="522780624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522781608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522780624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522780624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522781608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$C$2:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$D$2:$D$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$E$2:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$F$2:$F$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$G$2:$G$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$H$2:$H$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$I$2:$I$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$J$2:$J$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$K$2:$K$82</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>teraterm_PD3!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p+d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>teraterm_PD3!$L$2:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>100.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.6700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-27.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-29.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-40.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.83</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-20.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-32.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-27.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-19.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-11.17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4.33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49.33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1001.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-56.17</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-138.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-53DB-4538-82E2-679C59BBB684}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="533756240"/>
+        <c:axId val="533760176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="533756240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533760176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533760176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533756240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2833,17 +6582,1565 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>80961</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2866,6 +8163,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD403BE-BC5F-453E-AC88-24157AF6E1A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AEAD70-2C92-47D8-9A1D-F91D249A77FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20410</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E48DA74-A238-4295-9753-01CD4BA7D799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3170,11 +8575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC102" sqref="AC102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3182,11 +8587,14 @@
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -3220,8 +8628,11 @@
       <c r="K1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3255,8 +8666,12 @@
       <c r="K2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="1">
+        <f>H2+I2</f>
+        <v>100.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3290,8 +8705,12 @@
       <c r="K3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L66" si="0">H3+I3</f>
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3325,8 +8744,12 @@
       <c r="K4">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3360,8 +8783,12 @@
       <c r="K5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>120.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +8822,12 @@
       <c r="K6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3430,8 +8861,12 @@
       <c r="K7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3465,8 +8900,12 @@
       <c r="K8">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>97.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3500,8 +8939,12 @@
       <c r="K9">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3535,8 +8978,12 @@
       <c r="K10">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3570,8 +9017,12 @@
       <c r="K11">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>86.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3605,8 +9056,12 @@
       <c r="K12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3640,8 +9095,12 @@
       <c r="K13">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3675,8 +9134,12 @@
       <c r="K14">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>93.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3710,8 +9173,12 @@
       <c r="K15">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3745,8 +9212,12 @@
       <c r="K16">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3780,8 +9251,12 @@
       <c r="K17">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>58.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3815,8 +9290,12 @@
       <c r="K18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3850,8 +9329,12 @@
       <c r="K19">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>42.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3885,8 +9368,12 @@
       <c r="K20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3920,8 +9407,12 @@
       <c r="K21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3955,8 +9446,12 @@
       <c r="K22">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>38.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3990,8 +9485,12 @@
       <c r="K23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4025,8 +9524,12 @@
       <c r="K24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4060,8 +9563,12 @@
       <c r="K25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4095,8 +9602,12 @@
       <c r="K26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4130,8 +9641,12 @@
       <c r="K27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4165,8 +9680,12 @@
       <c r="K28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4200,8 +9719,12 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4235,8 +9758,12 @@
       <c r="K30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4270,8 +9797,12 @@
       <c r="K31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.6700000000000017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4305,8 +9836,12 @@
       <c r="K32">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4340,8 +9875,12 @@
       <c r="K33">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4375,8 +9914,12 @@
       <c r="K34">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4410,8 +9953,12 @@
       <c r="K35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4445,8 +9992,12 @@
       <c r="K36">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>-40.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4480,8 +10031,12 @@
       <c r="K37">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4515,8 +10070,12 @@
       <c r="K38">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4550,8 +10109,12 @@
       <c r="K39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4585,8 +10148,12 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4620,8 +10187,12 @@
       <c r="K41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L41" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4655,8 +10226,12 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4690,8 +10265,12 @@
       <c r="K43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4725,8 +10304,12 @@
       <c r="K44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L44" s="1">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4760,8 +10343,12 @@
       <c r="K45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L45" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4795,8 +10382,12 @@
       <c r="K46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4830,8 +10421,12 @@
       <c r="K47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4865,8 +10460,12 @@
       <c r="K48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L48" s="1">
+        <f t="shared" si="0"/>
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4900,8 +10499,12 @@
       <c r="K49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L49" s="1">
+        <f t="shared" si="0"/>
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4935,8 +10538,12 @@
       <c r="K50">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>-32.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4970,8 +10577,12 @@
       <c r="K51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>-27.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -5005,8 +10616,12 @@
       <c r="K52">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L52" s="1">
+        <f t="shared" si="0"/>
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -5040,8 +10655,12 @@
       <c r="K53">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L53" s="1">
+        <f t="shared" si="0"/>
+        <v>-19.759999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -5075,8 +10694,12 @@
       <c r="K54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L54" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -5110,8 +10733,12 @@
       <c r="K55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L55" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -5145,8 +10772,12 @@
       <c r="K56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L56" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5180,8 +10811,12 @@
       <c r="K57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L57" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5215,8 +10850,12 @@
       <c r="K58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L58" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5250,8 +10889,12 @@
       <c r="K59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L59" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -5285,8 +10928,12 @@
       <c r="K60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L60" s="1">
+        <f t="shared" si="0"/>
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -5320,8 +10967,12 @@
       <c r="K61">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L61" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -5355,8 +11006,12 @@
       <c r="K62">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L62" s="1">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5390,8 +11045,12 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5425,8 +11084,12 @@
       <c r="K64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L64" s="1">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5460,8 +11123,12 @@
       <c r="K65">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L65" s="1">
+        <f t="shared" si="0"/>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5495,8 +11162,12 @@
       <c r="K66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L66" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5530,8 +11201,12 @@
       <c r="K67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L67" s="1">
+        <f t="shared" ref="L67:L82" si="1">H67+I67</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5565,8 +11240,12 @@
       <c r="K68">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L68" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5600,8 +11279,12 @@
       <c r="K69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L69" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5635,8 +11318,12 @@
       <c r="K70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L70" s="1">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5670,8 +11357,12 @@
       <c r="K71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L71" s="1">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5705,8 +11396,12 @@
       <c r="K72">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L72" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5740,8 +11435,12 @@
       <c r="K73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L73" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5775,8 +11474,12 @@
       <c r="K74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L74" s="1">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5810,8 +11513,12 @@
       <c r="K75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L75" s="1">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5845,8 +11552,12 @@
       <c r="K76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L76" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5880,8 +11591,12 @@
       <c r="K77">
         <v>49</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L77" s="1">
+        <f t="shared" si="1"/>
+        <v>49.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5915,8 +11630,12 @@
       <c r="K78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L78" s="1">
+        <f t="shared" si="1"/>
+        <v>1001.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5950,8 +11669,12 @@
       <c r="K79">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L79" s="1">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5985,8 +11708,12 @@
       <c r="K80">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L80" s="1">
+        <f t="shared" si="1"/>
+        <v>-56.17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -6020,8 +11747,12 @@
       <c r="K81">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L81" s="1">
+        <f t="shared" si="1"/>
+        <v>-138.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -6055,8 +11786,12 @@
       <c r="K82">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L82" s="1">
+        <f t="shared" si="1"/>
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -6091,7 +11826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -6126,7 +11861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -6161,7 +11896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -6196,7 +11931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +11966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -8517,6 +14252,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>